--- a/models/table_c1.xlsx
+++ b/models/table_c1.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">l_wy_sci_world         </t>
   </si>
   <si>
-    <t xml:space="preserve">l_wy_state_mdl         </t>
+    <t xml:space="preserve">l_wy_model             </t>
   </si>
   <si>
     <t xml:space="preserve">sy_nat_state    </t>
@@ -100,76 +100,79 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2025          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0406          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0835          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">431.90          </t>
+    <t xml:space="preserve">0.2017          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0454          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0864          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">431.25          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0729***       </t>
+    <t xml:space="preserve">0.0702***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0111)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2867***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0954)        </t>
+    <t xml:space="preserve">0.2849***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0950)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2089          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0240          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0719          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.54          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0738***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2911***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0940)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0379**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0160)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0219*         </t>
+    <t xml:space="preserve">0.2081          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0242          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0744          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.39          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0710***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0110)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2894***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0936)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0383**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0161)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0217*         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0132)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4266          </t>
+    <t xml:space="preserve">0.4255          </t>
   </si>
   <si>
     <t xml:space="preserve">0.7595          </t>
@@ -178,202 +181,199 @@
     <t xml:space="preserve">0.6990          </t>
   </si>
   <si>
-    <t xml:space="preserve">252.46          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0660***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0062)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0795)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0164         </t>
+    <t xml:space="preserve">252.26          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0646***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0061)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1331*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0784)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0165         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0144)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0049          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0106)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4932***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1121)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0072          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0460)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4428          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6940          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6470          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">225.45          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0638***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0071)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0498          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1117)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0152         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0155)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0050          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4494***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1160)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0316         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0374)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1203**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0519)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4390          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7144          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6646          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.99          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0628***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0065)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0827          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0894)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0159         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0143)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0049          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0106)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4942***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1123)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0067          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0461)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4439          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6879          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6473          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">225.66          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0648***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0071)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0514          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1121)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0149         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0153)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0051          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0110)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4498***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1164)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0319         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0380)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1191**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0510)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4401          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7109          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6648          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.21          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0641***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0065)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0838          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0906)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0157         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0142)        </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.0028          </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4635***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1186)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0163         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0434)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0808**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4291          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7452          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6882          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">212.48          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0688***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0047)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0935          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1361)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0178         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0144)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0070          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0100)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4879***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1105)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0115         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0271)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0570          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0806)        </t>
+    <t xml:space="preserve">(0.0112)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4629***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1181)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0167         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0427)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0814**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0383)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4416          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7022          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6544          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">224.36          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0631***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0068)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0649          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0989)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0155         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0148)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0036          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4549***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1176)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0249         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0405)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1041**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0449)        </t>
   </si>
 </sst>
 </file>
@@ -863,16 +863,16 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
         <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -886,16 +886,16 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
         <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -909,16 +909,16 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -932,16 +932,16 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -955,16 +955,16 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1001,16 +1001,16 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1021,19 +1021,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1044,19 +1044,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1067,19 +1067,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1090,19 +1090,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1113,19 +1113,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1136,19 +1136,19 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1159,19 +1159,19 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1185,7 +1185,7 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -1208,7 +1208,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
@@ -1231,7 +1231,7 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
@@ -1254,7 +1254,7 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>82</v>
@@ -1352,7 +1352,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>

--- a/models/table_c1.xlsx
+++ b/models/table_c1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="118">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -100,280 +100,274 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">2132            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2017          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0454          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0864          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">431.25          </t>
+    <t xml:space="preserve">0.5404          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5381          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4816          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2475.8          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0702***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0111)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2849***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0950)        </t>
+    <t xml:space="preserve">0.1276***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0068)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7617***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0933)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2081          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0242          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0744          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.39          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0710***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0110)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2894***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0936)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0383**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0161)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0217*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0132)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4255          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7595          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6990          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">252.26          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0646***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0061)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1331*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0784)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0165         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0144)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0049          </t>
+    <t xml:space="preserve">0.5423          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5248          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4722          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">831.00          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1283***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7662***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0938)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0244*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0146)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0226**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0108)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8362          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9690          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9213          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2146.7          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1242***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0021)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0952**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0375)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0160*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0093)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0084          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0148)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7817***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0551)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0401*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0239)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8419          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9408          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9014          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1865.0          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1215***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0022)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0330          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0359)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0204*         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0106)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4932***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1121)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0072          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0460)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4428          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6940          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6470          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">225.45          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0638***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0071)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0498          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1117)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0152         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0155)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0050          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4494***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1160)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0316         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0374)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1203**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0519)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4390          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7144          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6646          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.99          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0628***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0065)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0827          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0894)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0159         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0143)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0028          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0112)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4629***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1181)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0167         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0427)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0814**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0383)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4416          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7022          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6544          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">224.36          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0631***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0068)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0649          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0989)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0155         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0148)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0036          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4549***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1176)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0249         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0405)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1041**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0449)        </t>
+    <t xml:space="preserve">0.0060          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0140)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7035***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0706)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0073          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0224)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1173***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0306)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8472          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9089          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8820          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1941.2          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1308***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0027)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0321         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0377)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0174          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0085          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0131)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6863***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0628)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0262         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0235)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2080***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0465)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8455          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9171          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8855          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1916.7          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1250***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0099         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0362)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0201*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0065          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0134)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6782***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0697)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0149         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0229)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1838***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0423)        </t>
   </si>
 </sst>
 </file>
@@ -863,16 +857,16 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
         <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -886,16 +880,16 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
         <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -909,16 +903,16 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -932,16 +926,16 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -955,16 +949,16 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1001,16 +995,16 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1021,19 +1015,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1044,19 +1038,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1067,19 +1061,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1090,19 +1084,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1113,19 +1107,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1136,19 +1130,19 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1159,19 +1153,19 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1185,16 +1179,16 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1208,16 +1202,16 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1231,16 +1225,16 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1254,16 +1248,16 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
         <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1329,7 +1323,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -1352,7 +1346,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -1378,7 +1372,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1401,7 +1395,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
